--- a/doc/d2_画面遷移図_櫻井家.xlsx
+++ b/doc/d2_画面遷移図_櫻井家.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\6月work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FAB32E-155B-4F5E-8942-C45A1A64DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1152C9-A1E1-4ED5-ABFD-342802681981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -100,47 +100,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>with ITを最初に開いた時と</t>
-    <rPh sb="8" eb="10">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲストでログインしている際にログイン必須のページに移動する（図の＊）際</t>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
+    <t>破線より下のみログイン必須</t>
+    <rPh sb="0" eb="2">
+      <t>ハセン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>ヒッス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左下のログイン動作に移行します。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,22 +262,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>103188</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>453415</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525463</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E08CBE7-4B6D-DD24-D632-7852CB54ED13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EAAEBA-7916-3955-C671-21FBFB6E1F97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -331,8 +299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="146050" y="1104900"/>
-          <a:ext cx="5819165" cy="6057900"/>
+          <a:off x="103188" y="1563687"/>
+          <a:ext cx="7772400" cy="5222523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1057,13 +1025,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>45083</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1071,19 +1043,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I8" s="6" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I9" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/d2_画面遷移図_櫻井家.xlsx
+++ b/doc/d2_画面遷移図_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1152C9-A1E1-4ED5-ABFD-342802681981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8458974-6111-4602-BD06-649573833CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -262,22 +262,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>103188</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:colOff>171980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>525463</xdr:colOff>
+      <xdr:colOff>455613</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>15522</xdr:rowOff>
+      <xdr:rowOff>15345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EAAEBA-7916-3955-C671-21FBFB6E1F97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED80833-A209-FE47-B5E1-F329A614FC09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -299,8 +299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="103188" y="1563687"/>
-          <a:ext cx="7772400" cy="5222523"/>
+          <a:off x="171980" y="1534583"/>
+          <a:ext cx="7612591" cy="4936595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>45083</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.2">
